--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam4-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H2">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J2">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>263.960993176608</v>
+        <v>22.78538699288345</v>
       </c>
       <c r="R2">
-        <v>2375.648938589472</v>
+        <v>205.068482935951</v>
       </c>
       <c r="S2">
-        <v>0.2494202153360104</v>
+        <v>0.07263531473140679</v>
       </c>
       <c r="T2">
-        <v>0.2494202153360104</v>
+        <v>0.07263531473140679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H3">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J3">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>249.4180606909507</v>
+        <v>39.68467404877133</v>
       </c>
       <c r="R3">
-        <v>2244.762546218556</v>
+        <v>357.162066438942</v>
       </c>
       <c r="S3">
-        <v>0.2356784070917794</v>
+        <v>0.1265069050811421</v>
       </c>
       <c r="T3">
-        <v>0.2356784070917795</v>
+        <v>0.1265069050811422</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.346040666666667</v>
+        <v>0.3732763333333333</v>
       </c>
       <c r="H4">
-        <v>7.038122</v>
+        <v>1.119829</v>
       </c>
       <c r="I4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="J4">
-        <v>0.7615156690656123</v>
+        <v>0.3554258969843855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>292.5316942059836</v>
+        <v>49.0255198617791</v>
       </c>
       <c r="R4">
-        <v>2632.785247853852</v>
+        <v>441.2296787560119</v>
       </c>
       <c r="S4">
-        <v>0.2764170466378224</v>
+        <v>0.1562836771718365</v>
       </c>
       <c r="T4">
-        <v>0.2764170466378225</v>
+        <v>0.1562836771718366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H5">
         <v>2.004951</v>
       </c>
       <c r="I5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J5">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>75.19461260126398</v>
+        <v>40.79514321987434</v>
       </c>
       <c r="R5">
-        <v>676.7515134113759</v>
+        <v>367.1562889788691</v>
       </c>
       <c r="S5">
-        <v>0.07105237876782321</v>
+        <v>0.130046861535153</v>
       </c>
       <c r="T5">
-        <v>0.07105237876782319</v>
+        <v>0.130046861535153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H6">
         <v>2.004951</v>
       </c>
       <c r="I6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J6">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>71.05176497372199</v>
+        <v>71.051764973722</v>
       </c>
       <c r="R6">
-        <v>639.4658847634979</v>
+        <v>639.465884763498</v>
       </c>
       <c r="S6">
-        <v>0.06713774753791853</v>
+        <v>0.2264989974802769</v>
       </c>
       <c r="T6">
-        <v>0.06713774753791853</v>
+        <v>0.226498997480277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6683169999999999</v>
+        <v>0.668317</v>
       </c>
       <c r="H7">
         <v>2.004951</v>
       </c>
       <c r="I7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="J7">
-        <v>0.2169330969552344</v>
+        <v>0.6363574327729865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>83.33355301740734</v>
+        <v>87.77569171042533</v>
       </c>
       <c r="R7">
-        <v>750.0019771566659</v>
+        <v>789.981225393828</v>
       </c>
       <c r="S7">
-        <v>0.07874297064949266</v>
+        <v>0.2798115737575566</v>
       </c>
       <c r="T7">
-        <v>0.07874297064949266</v>
+        <v>0.2798115737575566</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H8">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J8">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>7.470214148447999</v>
+        <v>0.5267483682524445</v>
       </c>
       <c r="R8">
-        <v>67.231927336032</v>
+        <v>4.740735314272001</v>
       </c>
       <c r="S8">
-        <v>0.007058703633022733</v>
+        <v>0.001679169790893663</v>
       </c>
       <c r="T8">
-        <v>0.007058703633022733</v>
+        <v>0.001679169790893663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H9">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J9">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>7.058642655603999</v>
+        <v>0.9174229652693334</v>
       </c>
       <c r="R9">
-        <v>63.527783900436</v>
+        <v>8.256806687424</v>
       </c>
       <c r="S9">
-        <v>0.006669804314468377</v>
+        <v>0.002924563267017204</v>
       </c>
       <c r="T9">
-        <v>0.006669804314468378</v>
+        <v>0.002924563267017204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06639399999999999</v>
+        <v>0.008629333333333334</v>
       </c>
       <c r="H10">
-        <v>0.199182</v>
+        <v>0.025888</v>
       </c>
       <c r="I10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627913</v>
       </c>
       <c r="J10">
-        <v>0.02155123397915336</v>
+        <v>0.008216670242627911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>8.278777764201333</v>
+        <v>1.133362913607111</v>
       </c>
       <c r="R10">
-        <v>74.508999877812</v>
+        <v>10.200266222464</v>
       </c>
       <c r="S10">
-        <v>0.007822726031662244</v>
+        <v>0.003612937184717046</v>
       </c>
       <c r="T10">
-        <v>0.007822726031662244</v>
+        <v>0.003612937184717046</v>
       </c>
     </row>
   </sheetData>
